--- a/StressTests/PyroTests/multi-node/resultats_tests.xlsx
+++ b/StressTests/PyroTests/multi-node/resultats_tests.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PyRO_Multi_Service" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PyRO_Multi_Filter" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -27,7 +26,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,10 +48,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -63,7 +73,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -426,13 +436,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -470,11 +480,16 @@
           <t>Speedup</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>InsultService1</t>
+          <t>InsultService</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -494,16 +509,21 @@
         <v>1000</v>
       </c>
       <c r="F2" t="n">
-        <v>5.21</v>
+        <v>5.28</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:38:38</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>InsultService1</t>
+          <t>InsultService</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -523,16 +543,21 @@
         <v>1000</v>
       </c>
       <c r="F3" t="n">
-        <v>5.05</v>
+        <v>4.68</v>
       </c>
       <c r="G3" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:38:38</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>InsultService1</t>
+          <t>InsultService</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -552,10 +577,321 @@
         <v>1000</v>
       </c>
       <c r="F4" t="n">
-        <v>5.05</v>
+        <v>4.64</v>
       </c>
       <c r="G4" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:38:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>InsultService</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:39:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InsultService</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:39:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>InsultService</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:39:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>InsultService</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:39:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>InsultService</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:39:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>InsultService</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:39:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>InsultService</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:39:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>InsultService</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:39:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>InsultService</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:39:56</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -569,46 +905,54 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H13" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="24.44140625" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Middleware</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Mode</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Clients</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Num Tasks</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Temps Total (s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Speedup</t>
         </is>
@@ -617,175 +961,409 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-05-18 17:29:41</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>InsultFilter</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PyRO</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Multi-node</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>1000</v>
       </c>
-      <c r="F2" t="n">
-        <v>5.19</v>
-      </c>
       <c r="G2" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-05-18 17:29:41</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>InsultFilter</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PyRO</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Multi-node</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1000</v>
       </c>
-      <c r="F3" t="n">
-        <v>5.05</v>
-      </c>
       <c r="G3" t="n">
-        <v>1.03</v>
+        <v>5.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-05-18 17:29:41</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>InsultFilter</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PyRO</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Multi-node</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1000</v>
       </c>
-      <c r="F4" t="n">
-        <v>5.14</v>
-      </c>
       <c r="G4" t="n">
-        <v>1.01</v>
+        <v>5.54</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-05-18 17:30:18</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>InsultFilter</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PyRO</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Multi-node</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>7.18</v>
+        <v>2500</v>
       </c>
       <c r="G5" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2025-05-18 17:30:18</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>InsultFilter</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PyRO</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Multi-node</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="n">
-        <v>1000</v>
-      </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>2500</v>
       </c>
       <c r="G6" t="n">
-        <v>1.02</v>
+        <v>6.32</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-05-18 17:30:18</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>InsultFilter</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PyRO</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Multi-node</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
-        <v>1000</v>
-      </c>
       <c r="F7" t="n">
-        <v>7.04</v>
+        <v>2500</v>
       </c>
       <c r="G7" t="n">
-        <v>1.02</v>
+        <v>6.15</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:31:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>InsultFilter</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:31:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>InsultFilter</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:31:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>InsultFilter</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:31:51</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>InsultFilter</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:31:51</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>InsultFilter</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-05-18 17:31:51</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>InsultFilter</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
